--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="11_F25DC773A252ABDACC10485C6999760C5ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7358D9EA-B91C-46B6-A834-360737EEB108}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC10485C6999760C5ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F59A07-2BA3-443E-B59D-B1B8F0784147}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,6 +334,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,7 +1386,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1537,7 @@
       <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="21">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G6" s="9">
@@ -1651,8 +1661,12 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>4</v>
@@ -1717,7 +1731,7 @@
       <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="21">
         <v>0.04</v>
       </c>
       <c r="G17" s="9">

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - VNU-HCMUS (1)\Desktop\UNetL2O\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC10485C6999760C5ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1F59A07-2BA3-443E-B59D-B1B8F0784147}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>22.9 dB</t>
   </si>
   <si>
-    <t>28.55 dB</t>
-  </si>
-  <si>
     <t>31.30 dB</t>
+  </si>
+  <si>
+    <t>23.26 dB</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,9 +308,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,10 +329,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1386,20 +1389,20 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1449,7 +1452,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1473,7 +1476,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1497,7 +1500,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1524,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1540,7 @@
       <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G6" s="9">
@@ -1545,8 +1548,8 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -1555,19 +1558,21 @@
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="20">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="20">
         <v>0</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15">
+      <c r="F7" s="21">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G7" s="14">
         <v>485780</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1577,7 +1582,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1587,7 +1592,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1597,7 +1602,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1607,33 +1612,33 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1646,7 @@
         <v>0.877</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1651,15 +1656,15 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1">
-        <v>0.77200000000000002</v>
+        <v>0.629</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1673,7 +1678,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1683,15 +1688,21 @@
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="D15" s="19">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4.8899999999999999E-2</v>
+      </c>
       <c r="G15" s="9">
         <v>533593</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1726,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +1742,7 @@
       <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>0.04</v>
       </c>
       <c r="G17" s="9">
@@ -1739,27 +1750,27 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="20">
         <v>0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="20">
         <v>0</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="20">
-        <v>467124</v>
-      </c>
-      <c r="H18" s="14"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14">
+        <v>485780</v>
+      </c>
+      <c r="H18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive - VNU-HCMUS (1)\Desktop\UNetL2O\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ED088DA-B28E-4874-A885-03D2A13995E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1389,20 +1389,20 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1462,21 +1462,15 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.254</v>
-      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="1">
         <v>4</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1494,7 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1524,7 +1518,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1542,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1566,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1582,7 +1576,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1592,7 +1586,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1602,7 +1596,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1612,7 +1606,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +1632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1650,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1666,19 +1660,15 @@
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>4</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +1692,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1726,7 +1716,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1740,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>9</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ED088DA-B28E-4874-A885-03D2A13995E1}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8A381E-F98B-49CA-AC65-597018B69D88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>28.52 dB</t>
   </si>
   <si>
-    <t>27.32 dB</t>
-  </si>
-  <si>
     <t>30.46 dB</t>
   </si>
   <si>
@@ -99,13 +96,16 @@
     <t>31.32 dB</t>
   </si>
   <si>
-    <t>22.9 dB</t>
-  </si>
-  <si>
     <t>31.30 dB</t>
   </si>
   <si>
     <t>23.26 dB</t>
+  </si>
+  <si>
+    <t>21.25dB</t>
+  </si>
+  <si>
+    <t>22.91 dB</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +339,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1392,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,13 +1416,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -1436,7 +1439,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8">
         <v>0.47149999999999997</v>
@@ -1475,19 +1478,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>0.76100000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8">
-        <v>5.7500000000000002E-2</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="E4" s="8">
-        <v>0.96950000000000003</v>
+        <v>0.2225</v>
       </c>
       <c r="F4" s="8">
-        <v>3.2000000000000001E-2</v>
+        <v>0.2165</v>
       </c>
       <c r="G4" s="9">
         <v>533593</v>
@@ -1496,7 +1499,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>0.85799999999999998</v>
@@ -1526,7 +1529,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -1550,7 +1553,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="20">
         <v>0</v>
@@ -1617,13 +1620,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>3</v>
@@ -1640,7 +1643,7 @@
         <v>0.877</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1658,7 +1661,7 @@
         <v>0.629</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1673,19 +1676,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>0.622</v>
+        <v>0.42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="19">
+        <v>25</v>
+      </c>
+      <c r="D15" s="23">
         <v>0.48499999999999999</v>
       </c>
-      <c r="E15" s="19">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F15" s="19">
-        <v>4.8899999999999999E-2</v>
+      <c r="E15" s="23">
+        <v>0.188</v>
+      </c>
+      <c r="F15" s="23">
+        <v>0.184</v>
       </c>
       <c r="G15" s="9">
         <v>533593</v>
@@ -1694,13 +1697,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>0.84599999999999997</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -1724,7 +1727,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -1748,7 +1751,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8A381E-F98B-49CA-AC65-597018B69D88}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8901498-37DE-48DA-B9A3-0AEBD93C647E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -60,9 +60,6 @@
     <t>ellipses</t>
   </si>
   <si>
-    <t>31.73 dB</t>
-  </si>
-  <si>
     <t>28.52 dB</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Implicit L2O</t>
   </si>
   <si>
-    <t>30.04 dB</t>
-  </si>
-  <si>
     <t>30.03 dB</t>
   </si>
   <si>
@@ -106,6 +100,15 @@
   </si>
   <si>
     <t>22.91 dB</t>
+  </si>
+  <si>
+    <t>Eval param</t>
+  </si>
+  <si>
+    <t>A, model, output</t>
+  </si>
+  <si>
+    <t>30.01 dB</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,14 +344,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
     <dxf>
       <font>
         <strike val="0"/>
@@ -380,6 +386,36 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -740,6 +776,36 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1075,8 +1141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC44BB78-CC53-46FA-99CF-DBEDFBA3AD93}" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A1:H7" xr:uid="{FC44BB78-CC53-46FA-99CF-DBEDFBA3AD93}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC44BB78-CC53-46FA-99CF-DBEDFBA3AD93}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:I7" xr:uid="{FC44BB78-CC53-46FA-99CF-DBEDFBA3AD93}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1085,24 +1151,26 @@
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A5E8272E-AB2A-4047-9934-387B339E5776}" name="Model" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F1DC289F-7D5E-4674-A157-49CC66F1D415}" name="avg. SSIM" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{63C65E96-667D-4B25-89EB-4AC0E6C8FC2B}" name="avg. PSNR" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{CDC9A1B5-0B5D-4B80-A5EF-414C0395D0DC}" name="Pixel violation" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{5749BDA4-2292-422C-8FFE-1FCFB12563DD}" name="Fidelity violation" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{94D4BC12-5417-4FF5-90AC-A8B4682C0988}" name="Data Reg. violation" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{F4EFEA36-9A09-467D-B58E-E6CCCDC50F89}" name="# Params" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{8B1CDBF0-B64A-4FD3-A2DF-283920C0556F}" name="lodopab" dataDxfId="13"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A5E8272E-AB2A-4047-9934-387B339E5776}" name="Model" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{F1DC289F-7D5E-4674-A157-49CC66F1D415}" name="avg. SSIM" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{63C65E96-667D-4B25-89EB-4AC0E6C8FC2B}" name="avg. PSNR" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{CDC9A1B5-0B5D-4B80-A5EF-414C0395D0DC}" name="Pixel violation" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{5749BDA4-2292-422C-8FFE-1FCFB12563DD}" name="Fidelity violation" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{94D4BC12-5417-4FF5-90AC-A8B4682C0988}" name="Data Reg. violation" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F4EFEA36-9A09-467D-B58E-E6CCCDC50F89}" name="# Params" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{F1A8E714-9C5D-4E63-923C-59E69E6F5D82}" name="Eval param" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{8B1CDBF0-B64A-4FD3-A2DF-283920C0556F}" name="lodopab" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6369EB09-E48C-4841-8A1C-600E582CFC73}" name="Table13" displayName="Table13" ref="A12:H18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A12:H18" xr:uid="{6369EB09-E48C-4841-8A1C-600E582CFC73}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6369EB09-E48C-4841-8A1C-600E582CFC73}" name="Table13" displayName="Table13" ref="A12:I18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A12:I18" xr:uid="{6369EB09-E48C-4841-8A1C-600E582CFC73}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1111,15 +1179,17 @@
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{03B57D94-2A54-4DDD-B690-5D4DB71CACF3}" name="Model" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{ABB10B22-FEEC-4DF6-A076-3203AF9B50C8}" name="avg. SSIM" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{44848EBB-7601-4793-9D7D-EE5925152BCA}" name="avg. PSNR" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A49C8120-C579-436D-BAA6-43A351B91EA7}" name="Pixel violation" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{21ADD3A6-F5CF-4640-A0D8-F7679F5175DF}" name="Fidelity violation" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{34611671-346E-4FBD-96B2-8A2C29281AE0}" name="Data Reg. violation" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{7E196D54-6E12-4441-ACBB-D17459A895A4}" name="# Params" dataDxfId="1"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{03B57D94-2A54-4DDD-B690-5D4DB71CACF3}" name="Model" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{ABB10B22-FEEC-4DF6-A076-3203AF9B50C8}" name="avg. SSIM" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{44848EBB-7601-4793-9D7D-EE5925152BCA}" name="avg. PSNR" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A49C8120-C579-436D-BAA6-43A351B91EA7}" name="Pixel violation" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{21ADD3A6-F5CF-4640-A0D8-F7679F5175DF}" name="Fidelity violation" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{34611671-346E-4FBD-96B2-8A2C29281AE0}" name="Data Reg. violation" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7E196D54-6E12-4441-ACBB-D17459A895A4}" name="# Params" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{36AB6D1D-8704-4BEC-875E-59086666067F}" name="Eval param" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{A50F78AD-3350-42A6-A18D-BB0D04772374}" name="ellipses" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1389,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,9 +1473,10 @@
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1416,22 +1487,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1439,7 +1513,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8">
         <v>0.47149999999999997</v>
@@ -1450,12 +1524,13 @@
       <c r="F2" s="8">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="11">
         <v>96307</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1463,17 +1538,18 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="1">
+      <c r="G3" s="10">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1481,7 +1557,7 @@
         <v>0.622</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8">
         <v>0.44550000000000001</v>
@@ -1492,36 +1568,40 @@
       <c r="F4" s="8">
         <v>0.2165</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>533593</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>0.85799999999999998</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F5" s="8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="G5" s="9">
-        <v>59697</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>0.217</v>
+      </c>
+      <c r="G5" s="11">
+        <v>146128</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1609,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -1540,12 +1620,13 @@
       <c r="F6" s="19">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>19536</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1634,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="20">
         <v>0</v>
@@ -1567,9 +1648,10 @@
       <c r="G7" s="14">
         <v>485780</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1579,7 +1661,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1589,7 +1671,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1599,7 +1681,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1609,7 +1691,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
@@ -1620,22 +1702,25 @@
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1643,17 +1728,18 @@
         <v>0.877</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>96307</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1661,17 +1747,18 @@
         <v>0.629</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
+      <c r="G14" s="10">
         <v>4</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1679,47 +1766,51 @@
         <v>0.42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="23">
+        <v>23</v>
+      </c>
+      <c r="D15" s="8">
         <v>0.48499999999999999</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="8">
         <v>0.188</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="8">
         <v>0.184</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>533593</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>0.84599999999999997</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F16" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="G16" s="9">
-        <v>59697</v>
-      </c>
-      <c r="H16" s="10"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>120844</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1727,7 +1818,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -1738,12 +1829,13 @@
       <c r="F17" s="19">
         <v>0.04</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>19536</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +1843,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
@@ -1763,7 +1855,8 @@
       <c r="G18" s="14">
         <v>485780</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8901498-37DE-48DA-B9A3-0AEBD93C647E}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B2FAD7-CDB6-4116-8BB4-A881CA6F5326}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,7 +1462,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>0.1875</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="F5" s="8">
-        <v>0.217</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="G5" s="11">
         <v>146128</v>
@@ -1799,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
-        <v>0.17499999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F16" s="8">
-        <v>0.19600000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G16" s="11">
         <v>120844</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B2FAD7-CDB6-4116-8BB4-A881CA6F5326}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB48FC8-DDE4-4404-B319-DB2F141EA9AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>30.46 dB</t>
   </si>
   <si>
-    <t>31.74 dB</t>
-  </si>
-  <si>
     <t>Pixel violation</t>
   </si>
   <si>
@@ -109,13 +106,16 @@
   </si>
   <si>
     <t>30.01 dB</t>
+  </si>
+  <si>
+    <t>31.66 dB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,13 +127,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -332,9 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,6 +339,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,7 +1455,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,19 +1480,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>25</v>
+      <c r="H1" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
@@ -1557,7 +1550,7 @@
         <v>0.622</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8">
         <v>0.44550000000000001</v>
@@ -1572,19 +1565,19 @@
         <v>533593</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>0.85499999999999998</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1606,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.85799999999999998</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19">
-        <v>5.7000000000000002E-2</v>
+        <v>4.7E-2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>2.7E-2</v>
       </c>
       <c r="G6" s="11">
         <v>19536</v>
@@ -1627,28 +1620,28 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>0.88300000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="20">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19">
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="G7" s="14">
         <v>485780</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1702,19 +1695,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="G12" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>10</v>
@@ -1728,7 +1721,7 @@
         <v>0.877</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1747,7 +1740,7 @@
         <v>0.629</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1766,7 +1759,7 @@
         <v>0.42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8">
         <v>0.48499999999999999</v>
@@ -1781,19 +1774,19 @@
         <v>533593</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>0.84799999999999998</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -1818,16 +1811,16 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F17" s="24">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G17" s="11">
         <v>19536</v>
@@ -1843,19 +1836,19 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="20">
+        <v>19</v>
+      </c>
+      <c r="D18" s="19">
         <v>0</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>0</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="14">
         <v>485780</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="13"/>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB48FC8-DDE4-4404-B319-DB2F141EA9AB}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB9A82C-8473-4D34-8B29-CE7E9F40DF2F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="19">
-        <v>0</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F7" s="20">
-        <v>4.9000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G7" s="14">
         <v>485780</v>
@@ -1768,7 +1768,7 @@
         <v>0.188</v>
       </c>
       <c r="F15" s="8">
-        <v>0.184</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G15" s="11">
         <v>533593</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB9A82C-8473-4D34-8B29-CE7E9F40DF2F}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90CD07C-C88F-4A62-B834-91433A174B8D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Model</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>31.66 dB</t>
+  </si>
+  <si>
+    <t>31.23 dB</t>
   </si>
 </sst>
 </file>
@@ -304,9 +307,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,6 +341,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1455,7 +1458,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1494,7 @@
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -1610,8 +1613,8 @@
       <c r="E6" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="F6" s="24">
-        <v>2.7E-2</v>
+      <c r="F6" s="23">
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="G6" s="11">
         <v>19536</v>
@@ -1620,7 +1623,7 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3">
@@ -1629,20 +1632,20 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="19">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="E7" s="18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F7" s="19">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>485780</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1685,31 +1688,31 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1819,7 +1822,7 @@
       <c r="E17" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G17" s="11">
@@ -1829,27 +1832,29 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="B18" s="14">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14">
+      <c r="E18" s="18">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F18" s="24">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G18" s="13">
         <v>485780</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E90CD07C-C88F-4A62-B834-91433A174B8D}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B781BCB3-39FF-41C2-97F2-F15DFCE8126A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1458,7 +1458,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="18">
-        <v>3.3000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F18" s="24">
-        <v>5.0999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G18" s="13">
         <v>485780</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B781BCB3-39FF-41C2-97F2-F15DFCE8126A}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5EF855-425A-43C2-A124-A4A805B2250B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +130,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -272,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,10 +347,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1134,6 +1144,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1458,7 +1472,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,22 +1516,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="23">
         <v>0.83199999999999996</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="25">
         <v>0.47149999999999997</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="25">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="25">
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="G2" s="11">
@@ -1527,18 +1541,18 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="23">
         <v>0.76500000000000001</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="10">
         <v>4</v>
       </c>
@@ -1613,7 +1627,7 @@
       <c r="E6" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="8">
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="G6" s="11">
@@ -1717,13 +1731,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="23">
         <v>0.877</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="1"/>
@@ -1736,13 +1750,13 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="23">
         <v>0.629</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="8"/>
@@ -1822,7 +1836,7 @@
       <c r="E17" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="8">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G17" s="11">
@@ -1847,7 +1861,7 @@
       <c r="E18" s="18">
         <v>0.04</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="19">
         <v>0.05</v>
       </c>
       <c r="G18" s="13">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC5EF855-425A-43C2-A124-A4A805B2250B}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F0D5B1C-992E-40F1-835A-37421A18FCA3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Model</t>
   </si>
@@ -60,9 +60,6 @@
     <t>ellipses</t>
   </si>
   <si>
-    <t>28.52 dB</t>
-  </si>
-  <si>
     <t>30.46 dB</t>
   </si>
   <si>
@@ -112,13 +109,19 @@
   </si>
   <si>
     <t>31.23 dB</t>
+  </si>
+  <si>
+    <t>23.10 dB</t>
+  </si>
+  <si>
+    <t>A, model.shink, output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +133,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,13 +343,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1144,10 +1143,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1472,7 +1467,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1478,7 @@
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,66 +1492,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="1">
         <v>0.83199999999999996</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0.47149999999999997</v>
-      </c>
-      <c r="E2" s="25">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F2" s="25">
-        <v>5.0500000000000003E-2</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5.45E-2</v>
       </c>
       <c r="G2" s="11">
-        <v>96307</v>
+        <v>99133</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="23">
-        <v>0.76500000000000001</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+        <v>28</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>5.45E-2</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0.13800000000000001</v>
+      </c>
       <c r="G3" s="10">
         <v>4</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1567,7 +1570,7 @@
         <v>0.622</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8">
         <v>0.44550000000000001</v>
@@ -1582,19 +1585,19 @@
         <v>533593</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0.85499999999999998</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -1619,7 +1622,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -1644,7 +1647,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="18">
         <v>0</v>
@@ -1712,19 +1715,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>10</v>
@@ -1738,30 +1741,42 @@
         <v>0.877</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="11">
-        <v>96307</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E13" s="24">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="F13" s="24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>99133</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="1">
         <v>0.629</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.13</v>
+      </c>
       <c r="G14" s="10">
         <v>4</v>
       </c>
@@ -1776,7 +1791,7 @@
         <v>0.42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="8">
         <v>0.48499999999999999</v>
@@ -1791,19 +1806,19 @@
         <v>533593</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>0.84799999999999998</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -1828,7 +1843,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -1853,7 +1868,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="18">
         <v>0</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c898fd010bc8e6/Desktop/UNetL2O/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F0D5B1C-992E-40F1-835A-37421A18FCA3}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{BA8AB4BA-576C-404C-B542-3703D65D273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43A983D-F74B-4D3A-A4AC-9A20817951A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Model</t>
   </si>
@@ -84,15 +84,9 @@
     <t>31.32 dB</t>
   </si>
   <si>
-    <t>31.30 dB</t>
-  </si>
-  <si>
     <t>23.26 dB</t>
   </si>
   <si>
-    <t>21.25dB</t>
-  </si>
-  <si>
     <t>22.91 dB</t>
   </si>
   <si>
@@ -115,6 +109,15 @@
   </si>
   <si>
     <t>A, model.shink, output</t>
+  </si>
+  <si>
+    <t>21.25 dB</t>
+  </si>
+  <si>
+    <t>0.420</t>
+  </si>
+  <si>
+    <t>28.85 dB</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,16 +346,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1467,7 +1467,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
@@ -1536,29 +1536,29 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="1">
         <v>0.56599999999999995</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="8">
         <v>5.45E-2</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="8">
         <v>0.13800000000000001</v>
       </c>
       <c r="G3" s="10">
         <v>4</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -1570,7 +1570,7 @@
         <v>0.622</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8">
         <v>0.44550000000000001</v>
@@ -1585,7 +1585,7 @@
         <v>533593</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -1622,7 +1622,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -1727,32 +1727,32 @@
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="23">
-        <v>0.877</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="E13" s="24">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="F13" s="24">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G13" s="25">
+      <c r="B13" s="24">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E13" s="25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="G13" s="11">
         <v>99133</v>
       </c>
       <c r="H13" s="9"/>
@@ -1766,7 +1766,7 @@
         <v>0.629</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1787,11 +1787,11 @@
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.42</v>
+      <c r="B15" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8">
         <v>0.48499999999999999</v>
@@ -1806,7 +1806,7 @@
         <v>533593</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="10"/>
     </row>
@@ -1818,7 +1818,7 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="18">
         <v>0</v>
